--- a/biology/Botanique/Utrechtiaceae/Utrechtiaceae.xlsx
+++ b/biology/Botanique/Utrechtiaceae/Utrechtiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Utrechtiaceae sont une famille éteinte de conifères de l'ordre des Voltziales.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces sont des conifères primitifs à cônes ovulés compacts portant des complexes d'écailles de bractées bilatérales. Les bractées stériles sont libres, simples ou fourchues. Des pousses naines ovulifères présentent 10–30 écailles stériles et une ou plusieurs écailles fertiles larges et aplaties. Il y a un ovule par écaille fertile, attaché latéralement et inversé[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces sont des conifères primitifs à cônes ovulés compacts portant des complexes d'écailles de bractées bilatérales. Les bractées stériles sont libres, simples ou fourchues. Des pousses naines ovulifères présentent 10–30 écailles stériles et une ou plusieurs écailles fertiles larges et aplaties. Il y a un ovule par écaille fertile, attaché latéralement et inversé.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre type Utrechtia a été décrit à partir de fossiles d'Amérique du Nord datant du Paléozoïque[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre type Utrechtia a été décrit à partir de fossiles d'Amérique du Nord datant du Paléozoïque.
 </t>
         </is>
       </c>
@@ -573,17 +589,89 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom scientifique Utrechtiaceae est créé en 1991 par les paléobotanistes Gene Mapes et Gar W. Rothwell (d)[2] mais publié invalidement. Les mêmes auteurs valident le nom en 2003 dans une nouvelle publication[3], en même temps que le genre type Utrechtia et l'espèce type Utrechtia floriniformis.
-Utrechtiaceae a pour synonymes[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom scientifique Utrechtiaceae est créé en 1991 par les paléobotanistes Gene Mapes et Gar W. Rothwell (d) mais publié invalidement. Les mêmes auteurs valident le nom en 2003 dans une nouvelle publication, en même temps que le genre type Utrechtia et l'espèce type Utrechtia floriniformis.
+Utrechtiaceae a pour synonymes :
 †Lebachiaceae
 †Walchiaceae
-Les Utrechtiaceae sont classées dans l'ordre des Voltziales[4],[5],[6], des Pinales[7] ou des Walchiales[8].
-Phylogénie
-Les relations de parenté entre les différentes familles de Voltziales et des Pinales qui en sont issus ont été reconstituées par le botaniste néerlandais Aljos Farjon comme suit (2008)[9] :
-Liste des genres
-Selon l'IRMNG  (14 juillet 2022)[4] :
+Les Utrechtiaceae sont classées dans l'ordre des Voltziales des Pinales ou des Walchiales.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Utrechtiaceae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Utrechtiaceae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les relations de parenté entre les différentes familles de Voltziales et des Pinales qui en sont issus ont été reconstituées par le botaniste néerlandais Aljos Farjon comme suit (2008) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Utrechtiaceae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Utrechtiaceae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'IRMNG  (14 juillet 2022) :
 †Carpentiera Nemejc &amp; Augusta, 1934
 †Culmitzschia H. Ullrich, 1964
 †Czatkalostrobus L.I. Savizkaja in T.A. Sixtel, L.I. Savizkaja &amp; T.A. Iskandarchodjaev, 1975
@@ -599,7 +687,7 @@
 †Ernestia Florin, 1927 synonyme de Ernestiodendron Florin, 1934 (homonyme junior)
 †Lebachiella S.V. Meyen, 1997 (nom invalide)
 †Dvinostrobus A.V. Gomankov &amp; S.V. Meyen, 1986 (incertain, non évalué)
-Selon GBIF       (14 juillet 2022)[10] :
+Selon GBIF       (14 juillet 2022) :
 †Carpentiera Nemejc &amp; Augusta, 1934
 †Culmitzschia H.Ullrich, 1964
 †Czatkalostrobus L.I.Savizkaja, 1975
